--- a/medicine/Enfance/Jin_Gotō/Jin_Gotō.xlsx
+++ b/medicine/Enfance/Jin_Gotō/Jin_Gotō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jin_Got%C5%8D</t>
+          <t>Jin_Gotō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jin Gotō (後藤 仁, Gotō Jin?), né en 1968 dans préfecture de Hyōgo, est un peintre japonais de l'école nihonga et un album illustré.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jin_Got%C5%8D</t>
+          <t>Jin_Gotō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gotō naît à Hyōgo en 1968. Son oncle est fabricant de karakuri ningyō[1]. En 1986, il est présent lors de l'Exhibition of students à la National Gallery of Victoria en Australie[1]. En 1988, il est diplômé des cours de beaux-arts Kogei d'Osaka et étudie la peinture auprès de Takashi Murakami pendant deux ans[2]. À partir de 1995, il restaure des documents japonais en cuir doré (金唐革紙 Kinkarakawashi, sorte de papier de grande qualité peint à la main) au Irifuneyama Memorial Hall à Kure, au Ijokaku à Kobe et au jardin de Kyū-Iwasaki-tei à Tokyo (classé bien culturel important national)[2],[3]. En 1996, il est diplômé de l'université des arts de Tokyo et devient élève de Sumio Gotō[1],[3]. De 1996 à 2010, une fois par an, il montre son travail à l'Exposition de Nihonga par Syonokai dans le grand magasin Matsuzakaya à Ginza. En 2007, son travail précédent est exposé au British Museum et au Victoria and Albert Museum à Londres[2],[3].
-Goto possède un studio dans la préfecture de Chiba. Il voyage pour réaliser des esquisses dans toute l'Asie et peint des tableaux de femmes (bijinga). Il a exposé au British Museum, au musée d'art métropolitain de Tokyo, au musée d'art d'Osaka, au musée du papier à Tokyo etc. Il enseigne la peinture nihonga et bijinga au NHK Culture Center et au centre culturel Yomiuri de la Nippon Television[1],[2],[4],[5],[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gotō naît à Hyōgo en 1968. Son oncle est fabricant de karakuri ningyō. En 1986, il est présent lors de l'Exhibition of students à la National Gallery of Victoria en Australie. En 1988, il est diplômé des cours de beaux-arts Kogei d'Osaka et étudie la peinture auprès de Takashi Murakami pendant deux ans. À partir de 1995, il restaure des documents japonais en cuir doré (金唐革紙 Kinkarakawashi, sorte de papier de grande qualité peint à la main) au Irifuneyama Memorial Hall à Kure, au Ijokaku à Kobe et au jardin de Kyū-Iwasaki-tei à Tokyo (classé bien culturel important national),. En 1996, il est diplômé de l'université des arts de Tokyo et devient élève de Sumio Gotō,. De 1996 à 2010, une fois par an, il montre son travail à l'Exposition de Nihonga par Syonokai dans le grand magasin Matsuzakaya à Ginza. En 2007, son travail précédent est exposé au British Museum et au Victoria and Albert Museum à Londres,.
+Goto possède un studio dans la préfecture de Chiba. Il voyage pour réaliser des esquisses dans toute l'Asie et peint des tableaux de femmes (bijinga). Il a exposé au British Museum, au musée d'art métropolitain de Tokyo, au musée d'art d'Osaka, au musée du papier à Tokyo etc. Il enseigne la peinture nihonga et bijinga au NHK Culture Center et au centre culturel Yomiuri de la Nippon Television.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jin_Got%C5%8D</t>
+          <t>Jin_Gotō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Livres illustrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La fille aux longs cheveux - Changfamei (vieux conte chinois du peuple Dong)[8],[9],[10].
-Le Prince changé en chien (vieux conte du Tibet)[11],[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La fille aux longs cheveux - Changfamei (vieux conte chinois du peuple Dong).
+Le Prince changé en chien (vieux conte du Tibet),.</t>
         </is>
       </c>
     </row>
